--- a/data/134/DEUSTATIS/old/Import price index - total.xlsx
+++ b/data/134/DEUSTATIS/old/Import price index - total.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="85">
   <si>
     <t>Index of import prices (incl. rates of change): Germany,
 months</t>
@@ -271,7 +271,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:35:13</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:33:13</t>
   </si>
 </sst>
 </file>
@@ -11255,42 +11255,42 @@
       <c r="B722" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="C722" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="D722" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="E722" t="s" s="10">
-        <v>82</v>
+      <c r="C722" t="n" s="10">
+        <v>113.9</v>
+      </c>
+      <c r="D722" t="n" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="E722" t="n" s="10">
+        <v>17.7</v>
       </c>
     </row>
     <row r="723">
       <c r="B723" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="C723" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="D723" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="E723" t="s" s="10">
-        <v>82</v>
+      <c r="C723" t="n" s="10">
+        <v>118.2</v>
+      </c>
+      <c r="D723" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="E723" t="n" s="10">
+        <v>21.7</v>
       </c>
     </row>
     <row r="724">
       <c r="B724" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="C724" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="D724" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="E724" t="s" s="10">
-        <v>82</v>
+      <c r="C724" t="n" s="10">
+        <v>121.7</v>
+      </c>
+      <c r="D724" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="E724" t="n" s="10">
+        <v>24.7</v>
       </c>
     </row>
     <row r="725">
@@ -11327,7 +11327,7 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup usePrinterDefaults="false"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:35:18&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:33:18&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>